--- a/resources/templates/ReporteMantenimiento.xlsx
+++ b/resources/templates/ReporteMantenimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsanchez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC91519-A013-4B79-A11A-3B2B428D8194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EE5011-8729-4B4D-AB04-A723B9BFEF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6404EE97-B235-4323-8CEA-1E9AC424FEF9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6404EE97-B235-4323-8CEA-1E9AC424FEF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Folio</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Estatus</t>
   </si>
   <si>
-    <t>Hora</t>
-  </si>
-  <si>
     <t>Departamento</t>
   </si>
   <si>
@@ -86,14 +83,20 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>FechaFin</t>
+    <t>Hora Inicio</t>
+  </si>
+  <si>
+    <t>Fecha Fin</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +104,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,18 +158,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54B3943D-4E32-44CF-9BE3-FE6587E19CA8}" name="Tabla2" displayName="Tabla2" ref="A1:Q3" totalsRowShown="0">
-  <autoFilter ref="A1:Q3" xr:uid="{54B3943D-4E32-44CF-9BE3-FE6587E19CA8}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54B3943D-4E32-44CF-9BE3-FE6587E19CA8}" name="Tabla2" displayName="Tabla2" ref="A1:R3" totalsRowShown="0">
+  <autoFilter ref="A1:R3" xr:uid="{54B3943D-4E32-44CF-9BE3-FE6587E19CA8}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{7C91016E-AB8D-4429-B6D8-589EBAE851AE}" name="Folio"/>
     <tableColumn id="2" xr3:uid="{FB279244-BDAB-4328-808B-40DE2C438FDB}" name="Estatus"/>
     <tableColumn id="3" xr3:uid="{BD096C78-823B-43CD-9424-41005B3052EF}" name="Fecha"/>
-    <tableColumn id="4" xr3:uid="{35228F56-0FC5-41A6-B01E-B6D58F43CDCE}" name="Hora"/>
+    <tableColumn id="19" xr3:uid="{D4901E0E-B679-406B-BFBB-98355045DCFF}" name="Fecha Fin"/>
+    <tableColumn id="4" xr3:uid="{35228F56-0FC5-41A6-B01E-B6D58F43CDCE}" name="Hora Inicio"/>
+    <tableColumn id="18" xr3:uid="{E8EA7F53-5A90-4AEE-9EE9-BBC144953FE0}" name="HoraFin"/>
+    <tableColumn id="17" xr3:uid="{E1C9C538-635C-4CC1-A6C1-CB510265AC31}" name="Diferencia"/>
     <tableColumn id="5" xr3:uid="{8998DD14-3953-4EB3-A5EE-F8CD2AF5B00D}" name="Departamento"/>
     <tableColumn id="6" xr3:uid="{F7449834-BCE3-408A-9BBB-BF82872C03FE}" name="Maquina"/>
     <tableColumn id="7" xr3:uid="{DB158117-21F2-4F65-9EF8-06D381C53D58}" name="TipoFalla"/>
     <tableColumn id="8" xr3:uid="{B7FD51C5-2A29-4A56-94C9-2CAFB297BD20}" name="Falla"/>
-    <tableColumn id="9" xr3:uid="{0AD978E1-8679-4E5E-9E00-12B0DA70EC74}" name="HoraFin"/>
     <tableColumn id="10" xr3:uid="{94138994-D589-4AA4-8FF3-577A18770A28}" name="ClaveEmpleado"/>
     <tableColumn id="11" xr3:uid="{6F906B70-CA57-4B90-9B7E-1E658D51B514}" name="NombreEmpleado"/>
     <tableColumn id="12" xr3:uid="{01FAE9CE-62F4-49F8-8D75-9139E235773F}" name="Turno"/>
@@ -161,7 +179,6 @@
     <tableColumn id="14" xr3:uid="{D438F9BF-5B40-4102-8F2E-EFFC0C317F01}" name="CveAtendio"/>
     <tableColumn id="15" xr3:uid="{75CD4D40-65FC-41CE-91C2-F1A51BB4C340}" name="NomAtendio"/>
     <tableColumn id="16" xr3:uid="{D966BE6B-AD0F-4EB9-8072-C30F37057755}" name="ObsCierre"/>
-    <tableColumn id="17" xr3:uid="{E1C9C538-635C-4CC1-A6C1-CB510265AC31}" name="FechaFin"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -484,22 +501,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01711A0D-BD52-456F-B429-E9675D23E379}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="A1:Q3"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,52 +524,56 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
